--- a/biology/Médecine/Échelle_de_douleur_et_d'inconfort_du_nouveau-né/Échelle_de_douleur_et_d'inconfort_du_nouveau-né.xlsx
+++ b/biology/Médecine/Échelle_de_douleur_et_d'inconfort_du_nouveau-né/Échelle_de_douleur_et_d'inconfort_du_nouveau-né.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_douleur_et_d%27inconfort_du_nouveau-n%C3%A9</t>
+          <t>Échelle_de_douleur_et_d'inconfort_du_nouveau-né</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échelle de douleur et d'inconfort du nouveau-né et du nourrisson (EDIN) est une méthode utilisée pour quantifier la douleur chez les petits enfants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_douleur_et_d%27inconfort_du_nouveau-n%C3%A9</t>
+          <t>Échelle_de_douleur_et_d'inconfort_du_nouveau-né</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,26 +523,165 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'échelle comporte cinq items, quotés chacun de 0 à 3 : 0 pour une absence de douleur et 3 pour une douleur d'intensité maximale. Les items sont l'expression du visage, le comportement corporel, le sommeil, la relation avec les autres, et le besoin de réconfort[1].
-Visage
-0 : visage détendu ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle comporte cinq items, quotés chacun de 0 à 3 : 0 pour une absence de douleur et 3 pour une douleur d'intensité maximale. Les items sont l'expression du visage, le comportement corporel, le sommeil, la relation avec les autres, et le besoin de réconfort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Échelle_de_douleur_et_d'inconfort_du_nouveau-né</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_douleur_et_d%27inconfort_du_nouveau-n%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Visage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0 : visage détendu ;
 1 : grimaces passagères : froncements de sourcils, lèvres pincées, plissement du menton, tremblements du menton ;
 2 : grimaces fréquentes, marquées ou prolongées ;
-3 : crispation permanente ou visage prostré, figé, ou visage violacé.
-Corps
-0 : détendu ;
+3 : crispation permanente ou visage prostré, figé, ou visage violacé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échelle_de_douleur_et_d'inconfort_du_nouveau-né</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_douleur_et_d%27inconfort_du_nouveau-n%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0 : détendu ;
 1 : agitation transitoire, assez souvent calme ;
 2 : agitation fréquente mais retour au calme possible ;
-3 : agitation permanente : crispation des extrémités et raideur des membres, ou motricité très pauvre et limitée avec corps figé.
-Sommeil
-0 : s'endort facilement ;
+3 : agitation permanente : crispation des extrémités et raideur des membres, ou motricité très pauvre et limitée avec corps figé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelle_de_douleur_et_d'inconfort_du_nouveau-né</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_douleur_et_d%27inconfort_du_nouveau-n%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sommeil</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0 : s'endort facilement ;
 1 : s'endort difficilement ;
 2 : se réveille spontanément et fréquemment en dehors des soins, sommeil agité ;
-3 : pas de sommeil.
-Relations
-enfant de moins de deux ans ou ne parlant pas :
+3 : pas de sommeil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échelle_de_douleur_et_d'inconfort_du_nouveau-né</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_douleur_et_d%27inconfort_du_nouveau-n%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Relations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>enfant de moins de deux ans ou ne parlant pas :
 0 : sourire aux anges, sourire réponse, attentif à l'écoute,
 1 : appréhension passagère au moment du contact,
 2 : contact difficile, cri à la moindre stimulation,
@@ -539,9 +690,43 @@
 0 : l'enfant parle sans se plaindre (fait une remarque positive, parle d'autre chose),
 1 : l'enfant ne parle pas, ou se plaint mais pas de douleur (« j'ai soif », « je veux voir maman »),
 2 : l'enfant se plaint de douleur et d'autre chose (« j'ai mal », « je veux maman »),
-3 : idem &lt; 2 ans.
-Réconfort
-0 : n'a pas besoin de réconfort ;
+3 : idem &lt; 2 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échelle_de_douleur_et_d'inconfort_du_nouveau-né</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_douleur_et_d%27inconfort_du_nouveau-n%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réconfort</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0 : n'a pas besoin de réconfort ;
 1 : se calme rapidement lors de caresses, au son de la voix ou à la succion ;
 2 : se calme difficilement ;
 3 : inconsolable, succion désespérée.</t>
